--- a/src/excel/SpanishEnglish-SUSTANTIVESCONCRETOS1.xlsx
+++ b/src/excel/SpanishEnglish-SUSTANTIVESCONCRETOS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F8C79D-B4CD-473C-BF81-CDAFECC117DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B3574-BA73-46BD-B608-8A35282BA16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
+    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,98 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>markings</t>
-  </si>
-  <si>
-    <t>autbreik</t>
-  </si>
-  <si>
-    <t>egr'esivnis</t>
-  </si>
-  <si>
-    <t>dis'is</t>
-  </si>
-  <si>
-    <t>joi</t>
-  </si>
-  <si>
-    <t>ent'ics</t>
-  </si>
-  <si>
-    <t>est'ardom</t>
-  </si>
-  <si>
-    <t>opshen</t>
-  </si>
-  <si>
-    <t>estiking point</t>
-  </si>
-  <si>
-    <t>welfer sistem</t>
-  </si>
-  <si>
-    <t>couchin</t>
-  </si>
-  <si>
-    <t>sheling</t>
-  </si>
-  <si>
-    <t>prep'eridnis</t>
-  </si>
-  <si>
-    <t>blackaut</t>
-  </si>
-  <si>
-    <t>breikfru</t>
-  </si>
-  <si>
-    <t>eksp'enses</t>
-  </si>
-  <si>
-    <t>bofin</t>
-  </si>
-  <si>
-    <t>gravol</t>
-  </si>
-  <si>
-    <t>lish</t>
-  </si>
-  <si>
-    <t>pauer cord</t>
-  </si>
-  <si>
-    <t>uiskid</t>
-  </si>
-  <si>
-    <t>gout</t>
-  </si>
-  <si>
-    <t>veis</t>
-  </si>
-  <si>
-    <t>est'ef</t>
-  </si>
-  <si>
-    <t>jost</t>
-  </si>
-  <si>
-    <t>biel</t>
-  </si>
-  <si>
-    <t>mains</t>
-  </si>
-  <si>
-    <t>inshorens</t>
-  </si>
-  <si>
-    <t>short eish</t>
-  </si>
-  <si>
     <t>scar</t>
   </si>
   <si>
@@ -352,6 +265,111 @@
   </si>
   <si>
     <t>bote(barco)</t>
+  </si>
+  <si>
+    <t>esk'ar</t>
+  </si>
+  <si>
+    <t>doner</t>
+  </si>
+  <si>
+    <t>rruf tailer</t>
+  </si>
+  <si>
+    <t>hendimen</t>
+  </si>
+  <si>
+    <t>selsmen</t>
+  </si>
+  <si>
+    <t>esk'eptiecs</t>
+  </si>
+  <si>
+    <t>flouding sheols</t>
+  </si>
+  <si>
+    <t>biget</t>
+  </si>
+  <si>
+    <t>grumer</t>
+  </si>
+  <si>
+    <t>esn'eol</t>
+  </si>
+  <si>
+    <t>bolet</t>
+  </si>
+  <si>
+    <t>kapshen</t>
+  </si>
+  <si>
+    <t>emou</t>
+  </si>
+  <si>
+    <t>erkraft</t>
+  </si>
+  <si>
+    <t>sapers</t>
+  </si>
+  <si>
+    <t>rriverbed</t>
+  </si>
+  <si>
+    <t>faund'eishen</t>
+  </si>
+  <si>
+    <t>af'ender</t>
+  </si>
+  <si>
+    <t>rrobesh</t>
+  </si>
+  <si>
+    <t>uit</t>
+  </si>
+  <si>
+    <t>barli</t>
+  </si>
+  <si>
+    <t>sonflauer</t>
+  </si>
+  <si>
+    <t>kerrier</t>
+  </si>
+  <si>
+    <t>kol</t>
+  </si>
+  <si>
+    <t>ordnens</t>
+  </si>
+  <si>
+    <t>u'aif</t>
+  </si>
+  <si>
+    <t>jemer</t>
+  </si>
+  <si>
+    <t>est'ingrei</t>
+  </si>
+  <si>
+    <t>buzer</t>
+  </si>
+  <si>
+    <t>depiedi</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>soeol</t>
+  </si>
+  <si>
+    <t>bout</t>
+  </si>
+  <si>
+    <t>est'iol-uorcs</t>
+  </si>
+  <si>
+    <t>est'iol-uork</t>
   </si>
 </sst>
 </file>
@@ -711,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
